--- a/documentation/final_priors.xlsx
+++ b/documentation/final_priors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nora Schmit\Documents\Model development\hbvmodel\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26226B06-75F9-45E9-8692-696BC28EFBD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D38B28-CB66-4D5A-89EB-603A4C487003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
